--- a/BipartiteKnapsackProblem/truck_optimization.xlsx
+++ b/BipartiteKnapsackProblem/truck_optimization.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="112">
   <si>
     <t>Materiale</t>
   </si>
@@ -39,52 +39,280 @@
     <t>Categorie</t>
   </si>
   <si>
-    <t>388360</t>
-  </si>
-  <si>
-    <t>GRANA PADANO DOP G 200</t>
-  </si>
-  <si>
-    <t>115349</t>
-  </si>
-  <si>
-    <t>MOZZA GALBANI 125G DE</t>
-  </si>
-  <si>
-    <t>132086</t>
-  </si>
-  <si>
-    <t>GALBANI MOZZARELLA CUCINA 400G</t>
-  </si>
-  <si>
-    <t>156457</t>
-  </si>
-  <si>
-    <t>MOZZ.MINI BUFALA 150G EXP</t>
-  </si>
-  <si>
-    <t>50180</t>
-  </si>
-  <si>
-    <t>DOLCELATTE 1/8 D</t>
-  </si>
-  <si>
-    <t>50762</t>
-  </si>
-  <si>
-    <t>GORGONZOLA D.O.P. 1/8</t>
-  </si>
-  <si>
-    <t>50188</t>
-  </si>
-  <si>
-    <t>GORGONZOLA DOP INTENSO 1/8 D</t>
-  </si>
-  <si>
-    <t>10157</t>
-  </si>
-  <si>
-    <t>BEL PAESE K 2,5 GERMANIA</t>
+    <t>15192</t>
+  </si>
+  <si>
+    <t>MOZZA LACTOSEFREE GALB 100G</t>
+  </si>
+  <si>
+    <t>92519</t>
+  </si>
+  <si>
+    <t>MOZZARELLA DI LATTE DI BUFALA G 125 X 8</t>
+  </si>
+  <si>
+    <t>92548</t>
+  </si>
+  <si>
+    <t>MOZZARELLA 125 GR CARREFOUR CA X 20</t>
+  </si>
+  <si>
+    <t>99477</t>
+  </si>
+  <si>
+    <t>MOZZARELLA 125G GALBANI (B)</t>
+  </si>
+  <si>
+    <t>131570</t>
+  </si>
+  <si>
+    <t>MOZZARELLA K1 G.PRO X12 B F GR</t>
+  </si>
+  <si>
+    <t>156514</t>
+  </si>
+  <si>
+    <t>PARM REGG DOP G100</t>
+  </si>
+  <si>
+    <t>171560</t>
+  </si>
+  <si>
+    <t>MASCARPONE  K 2 GENERALE</t>
+  </si>
+  <si>
+    <t>172018</t>
+  </si>
+  <si>
+    <t>MASCARPONE G 250 F-B-UK-ESP-P</t>
+  </si>
+  <si>
+    <t>176230</t>
+  </si>
+  <si>
+    <t>MOZZA GALBANI 3X100G CTX8 EXP</t>
+  </si>
+  <si>
+    <t>193260</t>
+  </si>
+  <si>
+    <t>RICOTTA VALLELATA K 1,5</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Ideal per truck:</t>
+  </si>
+  <si>
+    <t>Real per truck:</t>
+  </si>
+  <si>
+    <t>Closeness Percentage:</t>
+  </si>
+  <si>
+    <t>14767</t>
+  </si>
+  <si>
+    <t>GALBANI RICOTTA 250G - B</t>
+  </si>
+  <si>
+    <t>14799</t>
+  </si>
+  <si>
+    <t>MOZZ LIGHT 125G ESTERO X9</t>
+  </si>
+  <si>
+    <t>14922</t>
+  </si>
+  <si>
+    <t>MOZZARELLA BIO GALBANI 125 GR</t>
+  </si>
+  <si>
+    <t>15210</t>
+  </si>
+  <si>
+    <t>GORGONZOLA DOP CREMOSO 150GR ESTERO</t>
+  </si>
+  <si>
+    <t>15213</t>
+  </si>
+  <si>
+    <t>GORGONZOLA DOP INTENSO 150GR ESTERO</t>
+  </si>
+  <si>
+    <t>50191</t>
+  </si>
+  <si>
+    <t>GORGONZOLA DOP CREMOSO 1/8 GENERALE</t>
+  </si>
+  <si>
+    <t>72365</t>
+  </si>
+  <si>
+    <t>GALBANONE K 5</t>
+  </si>
+  <si>
+    <t>92326</t>
+  </si>
+  <si>
+    <t>PIADINA G 360 GALB PROF.ESTERO</t>
+  </si>
+  <si>
+    <t>92334</t>
+  </si>
+  <si>
+    <t>PAESANO G 40</t>
+  </si>
+  <si>
+    <t>92481</t>
+  </si>
+  <si>
+    <t>FETTE DI MOZZARELLA GALB G 500</t>
+  </si>
+  <si>
+    <t>99206</t>
+  </si>
+  <si>
+    <t>MOZZARELLA 125 G ALBERT HEIJN</t>
+  </si>
+  <si>
+    <t>99438</t>
+  </si>
+  <si>
+    <t>GRANA PD DOP SCAGLIE 500G</t>
+  </si>
+  <si>
+    <t>99495</t>
+  </si>
+  <si>
+    <t>MOZZ FETTE GALB PROF.K1 ESTERO</t>
+  </si>
+  <si>
+    <t>99500</t>
+  </si>
+  <si>
+    <t>MOZZ MINI 150GR DOYPACK - B</t>
+  </si>
+  <si>
+    <t>115017</t>
+  </si>
+  <si>
+    <t>RICOTTA 100GR B ESTERO</t>
+  </si>
+  <si>
+    <t>115197</t>
+  </si>
+  <si>
+    <t>GORGONZOLA DOP DOLCE JUMBO 170G</t>
+  </si>
+  <si>
+    <t>115198</t>
+  </si>
+  <si>
+    <t>GORGONZOLA DOP PICCANTE JUMBO 170G</t>
+  </si>
+  <si>
+    <t>115255</t>
+  </si>
+  <si>
+    <t>MOZZARELLA DELHAIZE 125G</t>
+  </si>
+  <si>
+    <t>131460</t>
+  </si>
+  <si>
+    <t>S.L. MINI K1 DA 5G</t>
+  </si>
+  <si>
+    <t>135060</t>
+  </si>
+  <si>
+    <t>GALBANI MOZZARELLA MAXI 200G D</t>
+  </si>
+  <si>
+    <t>135265</t>
+  </si>
+  <si>
+    <t>GALBANI MOZZARELLA MAXI 250G - S - DK</t>
+  </si>
+  <si>
+    <t>136862</t>
+  </si>
+  <si>
+    <t>MOZZARELLINE MINI 8G K1 G.PRO</t>
+  </si>
+  <si>
+    <t>137260</t>
+  </si>
+  <si>
+    <t>MOZZARELLA JULIENNE K1,5 G.PRO</t>
+  </si>
+  <si>
+    <t>156284</t>
+  </si>
+  <si>
+    <t>RICOTTA 250G CUCINA NOBILE</t>
+  </si>
+  <si>
+    <t>156452</t>
+  </si>
+  <si>
+    <t>MOZZ.F.DI LATTE JUL.G.PR.K2,5K EXP</t>
+  </si>
+  <si>
+    <t>156570</t>
+  </si>
+  <si>
+    <t>GALBANI MAXI BUFALA 200G EXP</t>
+  </si>
+  <si>
+    <t>171068</t>
+  </si>
+  <si>
+    <t>MASCARPONE G 500 ESP P F UK BEL</t>
+  </si>
+  <si>
+    <t>175946</t>
+  </si>
+  <si>
+    <t>MOZZA 125G SELEZIONE EXP</t>
+  </si>
+  <si>
+    <t>176040</t>
+  </si>
+  <si>
+    <t>GRANA PADANO DOP GRATT.GROSSO 70G</t>
+  </si>
+  <si>
+    <t>176101</t>
+  </si>
+  <si>
+    <t>BURRATA GALBANI 150G EXP B</t>
+  </si>
+  <si>
+    <t>176130</t>
+  </si>
+  <si>
+    <t>P.REG DOP 18M GRATT.60GX10 GA EXP</t>
+  </si>
+  <si>
+    <t>176183</t>
+  </si>
+  <si>
+    <t>GRANA PADANO DOP 12M 150G</t>
+  </si>
+  <si>
+    <t>176185</t>
+  </si>
+  <si>
+    <t>MOZZA CUCINA GA 400GR CAX5 BE</t>
+  </si>
+  <si>
+    <t>192731</t>
+  </si>
+  <si>
+    <t>GAL MINI BUFALA 150G DOY</t>
   </si>
   <si>
     <t>193060</t>
@@ -93,64 +321,34 @@
     <t>RICOTTA K 1,5 CAX4</t>
   </si>
   <si>
-    <t>92519</t>
-  </si>
-  <si>
-    <t>MOZZARELLA DI LATTE DI BUFALA G 125 X 8</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
-    <t>Ideal per truck:</t>
-  </si>
-  <si>
-    <t>Real per truck:</t>
-  </si>
-  <si>
-    <t>Closeness Percentage:</t>
-  </si>
-  <si>
-    <t>156570</t>
-  </si>
-  <si>
-    <t>GALBANI MAXI BUFALA 200G EXP</t>
-  </si>
-  <si>
-    <t>176229</t>
-  </si>
-  <si>
-    <t>MOZZA 400G CUCINA ALDI</t>
-  </si>
-  <si>
-    <t>99495</t>
-  </si>
-  <si>
-    <t>MOZZ FETTE GALB PROF.K1 ESTERO</t>
-  </si>
-  <si>
-    <t>42065</t>
-  </si>
-  <si>
-    <t>TALEGGIO DOP AUSTRIA-GERMANIA</t>
-  </si>
-  <si>
-    <t>137260</t>
-  </si>
-  <si>
-    <t>MOZZARELLA JULIENNE K1,5 G.PRO</t>
-  </si>
-  <si>
-    <t>156203</t>
-  </si>
-  <si>
-    <t>GORG DOP PICCANTE KAUFLAND 200GR</t>
-  </si>
-  <si>
-    <t>156411</t>
-  </si>
-  <si>
-    <t>GALBANI RICOTTA 250G  D</t>
+    <t>194178</t>
+  </si>
+  <si>
+    <t>GALBANI PECORINO ROMANO DOP 160GX7</t>
+  </si>
+  <si>
+    <t>253860</t>
+  </si>
+  <si>
+    <t>FILANTE JULIENNE K 1,5 GALB PRO</t>
+  </si>
+  <si>
+    <t>393360</t>
+  </si>
+  <si>
+    <t>GRANA PADANO DOP GRATT G 60</t>
+  </si>
+  <si>
+    <t>395060</t>
+  </si>
+  <si>
+    <t>PAESANO G250</t>
+  </si>
+  <si>
+    <t>398260</t>
+  </si>
+  <si>
+    <t>GRANA PADANO DOP GRATT K 1</t>
   </si>
 </sst>
 </file>
@@ -235,19 +433,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>203.0</v>
+        <v>288.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>203.0</v>
+        <v>144.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>438.88599999999997</v>
+        <v>564.48</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>438.88599999999997</v>
+        <v>282.24</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>1.0</v>
@@ -261,19 +459,19 @@
         <v>11</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>2880.0</v>
+        <v>720.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>144.0</v>
+        <v>120.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>8582.4</v>
+        <v>1540.8000000000002</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>429.12</v>
+        <v>256.8</v>
       </c>
       <c r="H3" t="n" s="0">
         <v>1.0</v>
@@ -287,19 +485,19 @@
         <v>13</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>168.0</v>
+        <v>640.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>168.0</v>
+        <v>64.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>359.52000000000004</v>
+        <v>2944.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>359.52000000000004</v>
+        <v>294.4</v>
       </c>
       <c r="H4" t="n" s="0">
         <v>1.0</v>
@@ -313,19 +511,19 @@
         <v>15</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>288.0</v>
+        <v>2736.0</v>
       </c>
       <c r="D5" t="n" s="0">
         <v>144.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>671.04</v>
+        <v>8153.28</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>335.52</v>
+        <v>429.12</v>
       </c>
       <c r="H5" t="n" s="0">
         <v>1.0</v>
@@ -339,19 +537,19 @@
         <v>17</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>96.0</v>
+        <v>42.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>96.0</v>
+        <v>42.0</v>
       </c>
       <c r="E6" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>312.0</v>
+        <v>520.8</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>312.0</v>
+        <v>520.8</v>
       </c>
       <c r="H6" t="n" s="0">
         <v>1.0</v>
@@ -365,19 +563,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>96.0</v>
+        <v>224.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>96.0</v>
+        <v>224.0</v>
       </c>
       <c r="E7" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>312.0</v>
+        <v>288.96</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>312.0</v>
+        <v>288.96</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>1.0</v>
@@ -391,19 +589,19 @@
         <v>21</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>192.0</v>
+        <v>40.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>96.0</v>
+        <v>20.0</v>
       </c>
       <c r="E8" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>624.0</v>
+        <v>520.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>312.0</v>
+        <v>260.0</v>
       </c>
       <c r="H8" t="n" s="0">
         <v>1.0</v>
@@ -417,19 +615,19 @@
         <v>23</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>56.0</v>
+        <v>504.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>56.0</v>
+        <v>126.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>296.24</v>
+        <v>1159.2</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>296.24</v>
+        <v>289.8</v>
       </c>
       <c r="H9" t="n" s="0">
         <v>1.0</v>
@@ -443,19 +641,19 @@
         <v>25</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>80.0</v>
+        <v>162.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>40.0</v>
+        <v>54.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>528.0</v>
+        <v>850.5</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>264.0</v>
+        <v>283.5</v>
       </c>
       <c r="H10" t="n" s="0">
         <v>1.0</v>
@@ -469,19 +667,19 @@
         <v>27</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>360.0</v>
+        <v>40.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>120.0</v>
+        <v>40.0</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>770.4000000000001</v>
+        <v>264.0</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>256.8</v>
+        <v>264.0</v>
       </c>
       <c r="H11" t="n" s="0">
         <v>1.0</v>
@@ -492,10 +690,10 @@
         <v>28</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>57.0</v>
+        <v>64.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>20528.486000000004</v>
+        <v>19206.02</v>
       </c>
     </row>
     <row r="14">
@@ -503,10 +701,10 @@
         <v>29</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>56.833333333333336</v>
+        <v>63.859109311740895</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>20489.221999999998</v>
+        <v>19180.722999999998</v>
       </c>
     </row>
     <row r="15">
@@ -514,10 +712,10 @@
         <v>30</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>57.0</v>
+        <v>64.0</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>20528.486000000004</v>
+        <v>19206.02</v>
       </c>
     </row>
     <row r="16">
@@ -525,10 +723,10 @@
         <v>31</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>99.70760233918129</v>
+        <v>99.77985829959515</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>99.80873406835748</v>
+        <v>99.86828608946568</v>
       </c>
     </row>
   </sheetData>
@@ -538,7 +736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -572,25 +770,25 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>10656.0</v>
+        <v>792.0</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>144.0</v>
+        <v>72.0</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>74.0</v>
+        <v>11.0</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>31754.88</v>
+        <v>1821.6</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>429.12</v>
+        <v>165.6</v>
       </c>
       <c r="H2" t="n" s="0">
         <v>1.0</v>
@@ -598,25 +796,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>160.0</v>
+        <v>144.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>160.0</v>
+        <v>144.0</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>390.4</v>
+        <v>308.16</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>390.4</v>
+        <v>308.16</v>
       </c>
       <c r="H3" t="n" s="0">
         <v>1.0</v>
@@ -624,25 +822,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>540.0</v>
+        <v>104.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>108.0</v>
+        <v>260.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>5.0</v>
+        <v>0.4</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>1890.0</v>
+        <v>180.96</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>378.0</v>
+        <v>452.4</v>
       </c>
       <c r="H4" t="n" s="0">
         <v>1.0</v>
@@ -650,25 +848,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>84.0</v>
+        <v>288.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>42.0</v>
+        <v>144.0</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>722.4</v>
+        <v>432.0</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>361.2</v>
+        <v>216.0</v>
       </c>
       <c r="H5" t="n" s="0">
         <v>1.0</v>
@@ -676,25 +874,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>70.0</v>
+        <v>144.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>140.0</v>
+        <v>144.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>0.5</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>165.9</v>
+        <v>216.0</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>331.8</v>
+        <v>216.0</v>
       </c>
       <c r="H6" t="n" s="0">
         <v>1.0</v>
@@ -702,25 +900,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>720.0</v>
+        <v>96.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>120.0</v>
+        <v>96.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>1540.8000000000002</v>
+        <v>312.0</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>256.8</v>
+        <v>312.0</v>
       </c>
       <c r="H7" t="n" s="0">
         <v>1.0</v>
@@ -728,25 +926,25 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>120.0</v>
+        <v>36.0</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>763.2</v>
+        <v>378.0</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>254.4</v>
+        <v>378.0</v>
       </c>
       <c r="H8" t="n" s="0">
         <v>1.0</v>
@@ -754,25 +952,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>60.0</v>
+        <v>32.0</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>1.0</v>
+        <v>0.8</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>234.0</v>
+        <v>163.20000000000002</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>234.0</v>
+        <v>204.0</v>
       </c>
       <c r="H9" t="n" s="0">
         <v>1.0</v>
@@ -780,72 +978,956 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>1512.0</v>
+        <v>144.0</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>72.0</v>
+        <v>156.0</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>21.0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>3477.6</v>
+        <v>139.10399999999998</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>165.6</v>
+        <v>150.696</v>
       </c>
       <c r="H10" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>440.0</v>
+      </c>
+      <c r="D11" t="n" s="0">
+        <v>88.0</v>
+      </c>
+      <c r="E11" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F11" t="n" s="0">
+        <v>1012.0</v>
+      </c>
+      <c r="G11" t="n" s="0">
+        <v>202.4</v>
+      </c>
+      <c r="H11" t="n" s="0">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>720.0</v>
+      </c>
+      <c r="D12" t="n" s="0">
+        <v>120.0</v>
       </c>
       <c r="E12" t="n" s="0">
-        <v>113.5</v>
+        <v>6.0</v>
       </c>
       <c r="F12" t="n" s="0">
-        <v>40939.18</v>
+        <v>1540.8000000000002</v>
+      </c>
+      <c r="G12" t="n" s="0">
+        <v>256.8</v>
+      </c>
+      <c r="H12" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>29</v>
+        <v>52</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>576.0</v>
+      </c>
+      <c r="D13" t="n" s="0">
+        <v>144.0</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>56.833333333333336</v>
+        <v>4.0</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>20489.221999999998</v>
+        <v>1601.28</v>
+      </c>
+      <c r="G13" t="n" s="0">
+        <v>400.32</v>
+      </c>
+      <c r="H13" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="D14" t="n" s="0">
+        <v>48.0</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>56.75</v>
+        <v>1.0</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>20469.59</v>
+        <v>173.76</v>
+      </c>
+      <c r="G14" t="n" s="0">
+        <v>173.76</v>
+      </c>
+      <c r="H14" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>4464.0</v>
+      </c>
+      <c r="D15" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="E15" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="F15" t="n" s="0">
+        <v>13302.72</v>
+      </c>
+      <c r="G15" t="n" s="0">
+        <v>429.12</v>
+      </c>
+      <c r="H15" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>84.0</v>
+      </c>
+      <c r="D16" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="E16" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F16" t="n" s="0">
+        <v>722.4</v>
+      </c>
+      <c r="G16" t="n" s="0">
+        <v>361.2</v>
+      </c>
+      <c r="H16" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>7300.0</v>
+      </c>
+      <c r="D17" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E17" t="n" s="0">
+        <v>73.0</v>
+      </c>
+      <c r="F17" t="n" s="0">
+        <v>22630.0</v>
+      </c>
+      <c r="G17" t="n" s="0">
+        <v>310.0</v>
+      </c>
+      <c r="H17" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>512.0</v>
+      </c>
+      <c r="D18" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="E18" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F18" t="n" s="0">
+        <v>358.4</v>
+      </c>
+      <c r="G18" t="n" s="0">
+        <v>179.2</v>
+      </c>
+      <c r="H18" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>64.0</v>
+      </c>
+      <c r="D19" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E19" t="n" s="0">
+        <v>1.6</v>
+      </c>
+      <c r="F19" t="n" s="0">
+        <v>311.04</v>
+      </c>
+      <c r="G19" t="n" s="0">
+        <v>194.4</v>
+      </c>
+      <c r="H19" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="D20" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F20" t="n" s="0">
+        <v>194.4</v>
+      </c>
+      <c r="G20" t="n" s="0">
+        <v>194.4</v>
+      </c>
+      <c r="H20" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>1296.0</v>
+      </c>
+      <c r="D21" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="E21" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="F21" t="n" s="0">
+        <v>3719.5199999999995</v>
+      </c>
+      <c r="G21" t="n" s="0">
+        <v>413.28</v>
+      </c>
+      <c r="H21" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="D22" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="E22" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F22" t="n" s="0">
+        <v>1382.64</v>
+      </c>
+      <c r="G22" t="n" s="0">
+        <v>345.66</v>
+      </c>
+      <c r="H22" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>3564.0</v>
+      </c>
+      <c r="D23" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="E23" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="F23" t="n" s="0">
+        <v>11761.199999999999</v>
+      </c>
+      <c r="G23" t="n" s="0">
+        <v>356.4</v>
+      </c>
+      <c r="H23" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>2808.0</v>
+      </c>
+      <c r="D24" t="n" s="0">
+        <v>108.0</v>
+      </c>
+      <c r="E24" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="F24" t="n" s="0">
+        <v>9266.4</v>
+      </c>
+      <c r="G24" t="n" s="0">
+        <v>356.4</v>
+      </c>
+      <c r="H24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>210.0</v>
+      </c>
+      <c r="D25" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="E25" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F25" t="n" s="0">
+        <v>1728.3000000000002</v>
+      </c>
+      <c r="G25" t="n" s="0">
+        <v>345.66</v>
+      </c>
+      <c r="H25" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>520.0</v>
+      </c>
+      <c r="D26" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E26" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="F26" t="n" s="0">
+        <v>3307.2000000000003</v>
+      </c>
+      <c r="G26" t="n" s="0">
+        <v>254.4</v>
+      </c>
+      <c r="H26" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>1800.0</v>
+      </c>
+      <c r="D27" t="n" s="0">
+        <v>72.0</v>
+      </c>
+      <c r="E27" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="F27" t="n" s="0">
+        <v>4050.0</v>
+      </c>
+      <c r="G27" t="n" s="0">
+        <v>162.0</v>
+      </c>
+      <c r="H27" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="D28" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="E28" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F28" t="n" s="0">
+        <v>175.04</v>
+      </c>
+      <c r="G28" t="n" s="0">
+        <v>175.04</v>
+      </c>
+      <c r="H28" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>960.0</v>
+      </c>
+      <c r="D29" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="E29" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="F29" t="n" s="0">
+        <v>2342.3999999999996</v>
+      </c>
+      <c r="G29" t="n" s="0">
+        <v>390.4</v>
+      </c>
+      <c r="H29" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>280.0</v>
+      </c>
+      <c r="D30" t="n" s="0">
+        <v>70.0</v>
+      </c>
+      <c r="E30" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F30" t="n" s="0">
+        <v>1232.0</v>
+      </c>
+      <c r="G30" t="n" s="0">
+        <v>308.0</v>
+      </c>
+      <c r="H30" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>288.0</v>
+      </c>
+      <c r="D31" t="n" s="0">
+        <v>144.0</v>
+      </c>
+      <c r="E31" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F31" t="n" s="0">
+        <v>809.28</v>
+      </c>
+      <c r="G31" t="n" s="0">
+        <v>404.64</v>
+      </c>
+      <c r="H31" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>160.0</v>
+      </c>
+      <c r="D32" t="n" s="0">
+        <v>80.0</v>
+      </c>
+      <c r="E32" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F32" t="n" s="0">
+        <v>133.44</v>
+      </c>
+      <c r="G32" t="n" s="0">
+        <v>66.72</v>
+      </c>
+      <c r="H32" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>1040.0</v>
+      </c>
+      <c r="D33" t="n" s="0">
+        <v>208.0</v>
+      </c>
+      <c r="E33" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="F33" t="n" s="0">
+        <v>1976.0</v>
+      </c>
+      <c r="G33" t="n" s="0">
+        <v>395.2</v>
+      </c>
+      <c r="H33" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>390.0</v>
+      </c>
+      <c r="D34" t="n" s="0">
+        <v>130.0</v>
+      </c>
+      <c r="E34" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F34" t="n" s="0">
+        <v>296.4</v>
+      </c>
+      <c r="G34" t="n" s="0">
+        <v>98.8</v>
+      </c>
+      <c r="H34" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>191.52</v>
+      </c>
+      <c r="G35" t="n" s="0">
+        <v>191.52</v>
+      </c>
+      <c r="H35" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>336.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>168.0</v>
+      </c>
+      <c r="E36" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F36" t="n" s="0">
+        <v>725.76</v>
+      </c>
+      <c r="G36" t="n" s="0">
+        <v>362.88</v>
+      </c>
+      <c r="H36" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>1875.0</v>
+      </c>
+      <c r="D37" t="n" s="0">
+        <v>125.0</v>
+      </c>
+      <c r="E37" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="F37" t="n" s="0">
+        <v>3093.75</v>
+      </c>
+      <c r="G37" t="n" s="0">
+        <v>206.25</v>
+      </c>
+      <c r="H37" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E38" t="n" s="0">
+        <v>0.25</v>
+      </c>
+      <c r="F38" t="n" s="0">
+        <v>66.0</v>
+      </c>
+      <c r="G38" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="H38" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="D39" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E39" t="n" s="0">
+        <v>0.75</v>
+      </c>
+      <c r="F39" t="n" s="0">
+        <v>198.0</v>
+      </c>
+      <c r="G39" t="n" s="0">
+        <v>264.0</v>
+      </c>
+      <c r="H39" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>171.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>152.0</v>
+      </c>
+      <c r="E40" t="n" s="0">
+        <v>1.13157894736842</v>
+      </c>
+      <c r="F40" t="n" s="0">
+        <v>226.52399999999977</v>
+      </c>
+      <c r="G40" t="n" s="0">
+        <v>200.184</v>
+      </c>
+      <c r="H40" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>120.0</v>
+      </c>
+      <c r="D41" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E41" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="F41" t="n" s="0">
+        <v>768.0</v>
+      </c>
+      <c r="G41" t="n" s="0">
+        <v>256.0</v>
+      </c>
+      <c r="H41" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>200.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>100.0</v>
+      </c>
+      <c r="E42" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F42" t="n" s="0">
+        <v>291.0</v>
+      </c>
+      <c r="G42" t="n" s="0">
+        <v>145.5</v>
+      </c>
+      <c r="H42" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>600.0</v>
+      </c>
+      <c r="D43" t="n" s="0">
+        <v>60.0</v>
+      </c>
+      <c r="E43" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="F43" t="n" s="0">
+        <v>2274.0</v>
+      </c>
+      <c r="G43" t="n" s="0">
+        <v>227.4</v>
+      </c>
+      <c r="H43" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="D44" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="E44" t="n" s="0">
+        <v>0.3</v>
+      </c>
+      <c r="F44" t="n" s="0">
+        <v>66.12</v>
+      </c>
+      <c r="G44" t="n" s="0">
+        <v>220.4</v>
+      </c>
+      <c r="H44" t="n" s="0">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E46" t="n" s="0">
+        <v>319.15465587044537</v>
+      </c>
+      <c r="F46" t="n" s="0">
+        <v>95878.31799999997</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E47" t="n" s="0">
+        <v>63.859109311740895</v>
+      </c>
+      <c r="F47" t="n" s="0">
+        <v>19180.722999999998</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E48" t="n" s="0">
+        <v>63.83093117408907</v>
+      </c>
+      <c r="F48" t="n" s="0">
+        <v>19175.663599999993</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="E15" t="n" s="0">
-        <v>99.8533724340176</v>
-      </c>
-      <c r="F15" t="n" s="0">
-        <v>99.9041837703745</v>
+      <c r="E49" t="n" s="0">
+        <v>99.95587452134</v>
+      </c>
+      <c r="F49" t="n" s="0">
+        <v>99.97362247502346</v>
       </c>
     </row>
   </sheetData>
